--- a/data/trans_orig/P22_R4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P22_R4-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>53888</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41345</v>
+        <v>39372</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70411</v>
+        <v>69876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05237571729303331</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04018464752120613</v>
+        <v>0.03826656406835637</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06843439694104844</v>
+        <v>0.06791470441698672</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -765,19 +765,19 @@
         <v>65313</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50958</v>
+        <v>49950</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82757</v>
+        <v>83011</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04969530375999685</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03877269131645047</v>
+        <v>0.0380057791225954</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06296860828374951</v>
+        <v>0.06316134361165981</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>118</v>
@@ -786,19 +786,19 @@
         <v>119201</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97952</v>
+        <v>98522</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>139445</v>
+        <v>140940</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05087227886432328</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04180379089157051</v>
+        <v>0.04204672348252695</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0595118932341054</v>
+        <v>0.06015012950049083</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>974992</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>958469</v>
+        <v>959004</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>987535</v>
+        <v>989508</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9476242827069666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9315656030589512</v>
+        <v>0.9320852955830135</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9598153524787938</v>
+        <v>0.9617334359316436</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1226</v>
@@ -836,19 +836,19 @@
         <v>1248952</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1231508</v>
+        <v>1231254</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1263307</v>
+        <v>1264315</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9503046962400031</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9370313917162504</v>
+        <v>0.9368386563883405</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9612273086835496</v>
+        <v>0.9619942208774049</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2207</v>
@@ -857,19 +857,19 @@
         <v>2223944</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2203700</v>
+        <v>2202205</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2245193</v>
+        <v>2244623</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9491277211356767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9404881067658946</v>
+        <v>0.9398498704995096</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9581962091084294</v>
+        <v>0.9579532765174731</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>150702</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>126581</v>
+        <v>129440</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>176437</v>
+        <v>175688</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08918105883136665</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07490670084725419</v>
+        <v>0.07659873437465714</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1044098241387884</v>
+        <v>0.1039665290540364</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -982,19 +982,19 @@
         <v>144816</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>122564</v>
+        <v>121927</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170325</v>
+        <v>169567</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09128049019783856</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07725450752157248</v>
+        <v>0.07685301715044406</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.107359724245522</v>
+        <v>0.1068814568320026</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>285</v>
@@ -1003,19 +1003,19 @@
         <v>295518</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>266945</v>
+        <v>263168</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>330773</v>
+        <v>328272</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09019766051837137</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08147659043533792</v>
+        <v>0.08032363439074493</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1009580376252113</v>
+        <v>0.1001946083574249</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1539145</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1513410</v>
+        <v>1514159</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1563266</v>
+        <v>1560407</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9108189411686334</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8955901758612116</v>
+        <v>0.8960334709459635</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9250932991527461</v>
+        <v>0.9234012656253429</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1413</v>
@@ -1053,19 +1053,19 @@
         <v>1441677</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1416168</v>
+        <v>1416926</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1463929</v>
+        <v>1464566</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9087195098021614</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8926402757544778</v>
+        <v>0.8931185431679969</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9227454924784274</v>
+        <v>0.9231469828495549</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2914</v>
@@ -1074,19 +1074,19 @@
         <v>2980822</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2945567</v>
+        <v>2948068</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3009395</v>
+        <v>3013172</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9098023394816286</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8990419623747884</v>
+        <v>0.8998053916425751</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9185234095646621</v>
+        <v>0.919676365609255</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>141803</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122487</v>
+        <v>124732</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163458</v>
+        <v>164460</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2571645498657354</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2221351809094592</v>
+        <v>0.2262062047019498</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2964373929368958</v>
+        <v>0.2982541066036667</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -1199,19 +1199,19 @@
         <v>111544</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94636</v>
+        <v>94468</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130076</v>
+        <v>133418</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2341335715995427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1986423814722702</v>
+        <v>0.1982901648528892</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2730323825598374</v>
+        <v>0.2800474579808161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>244</v>
@@ -1220,19 +1220,19 @@
         <v>253347</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>225945</v>
+        <v>226749</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>279469</v>
+        <v>280124</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2464893045745018</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2198291227788552</v>
+        <v>0.2206118420083123</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2719043934838498</v>
+        <v>0.2725418295464929</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>409605</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>387950</v>
+        <v>386948</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>428921</v>
+        <v>426676</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7428354501342647</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7035626070631037</v>
+        <v>0.7017458933963332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7778648190905405</v>
+        <v>0.7737937952980501</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>347</v>
@@ -1270,19 +1270,19 @@
         <v>364868</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>346336</v>
+        <v>342994</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>381776</v>
+        <v>381944</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7658664284004574</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7269676174401627</v>
+        <v>0.7199525420191836</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8013576185277298</v>
+        <v>0.8017098351471107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>735</v>
@@ -1291,19 +1291,19 @@
         <v>774473</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>748351</v>
+        <v>747696</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>801875</v>
+        <v>801071</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7535106954254982</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7280956065161501</v>
+        <v>0.7274581704535069</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7801708772211445</v>
+        <v>0.7793881579916875</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>346393</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>311921</v>
+        <v>312903</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>382820</v>
+        <v>381302</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1059262875168363</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09538478964699144</v>
+        <v>0.09568501124098282</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.117065587876887</v>
+        <v>0.1166013175410323</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>309</v>
@@ -1416,19 +1416,19 @@
         <v>321673</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>289004</v>
+        <v>287214</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>358629</v>
+        <v>355772</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09524916965129535</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08557577190640722</v>
+        <v>0.08504588865661868</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1061921371903994</v>
+        <v>0.1053461632205379</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>647</v>
@@ -1437,19 +1437,19 @@
         <v>668066</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>621720</v>
+        <v>617717</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>721223</v>
+        <v>720434</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1005017672187822</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09352962841037678</v>
+        <v>0.09292737848460646</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1084985890791435</v>
+        <v>0.1083799332767277</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2923742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2887315</v>
+        <v>2888833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2958214</v>
+        <v>2957232</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8940737124831637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.882934412123113</v>
+        <v>0.8833986824589677</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9046152103530085</v>
+        <v>0.9043149887590172</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2986</v>
@@ -1487,19 +1487,19 @@
         <v>3055497</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3018541</v>
+        <v>3021398</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3088166</v>
+        <v>3089956</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9047508303487046</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8938078628096006</v>
+        <v>0.8946538367794621</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9144242280935928</v>
+        <v>0.9149541113433814</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5856</v>
@@ -1508,19 +1508,19 @@
         <v>5979238</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5926081</v>
+        <v>5926870</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6025584</v>
+        <v>6029587</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8994982327812178</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8915014109208563</v>
+        <v>0.8916200667232724</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9064703715896233</v>
+        <v>0.9070726215153936</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>21586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14265</v>
+        <v>14026</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33665</v>
+        <v>32548</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02214719594837643</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01463586857875946</v>
+        <v>0.01439058323735792</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03454134077468159</v>
+        <v>0.03339510308213408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -1872,19 +1872,19 @@
         <v>43738</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31458</v>
+        <v>32011</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59675</v>
+        <v>59223</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03269426009626437</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02351494381584538</v>
+        <v>0.02392811395686175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0446070364428103</v>
+        <v>0.04426940925467159</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -1893,19 +1893,19 @@
         <v>65324</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49945</v>
+        <v>50901</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83883</v>
+        <v>85210</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02824890180679947</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02159854268362063</v>
+        <v>0.02201197824280852</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0362747817723123</v>
+        <v>0.03684863756549952</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>953057</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>940978</v>
+        <v>942095</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>960378</v>
+        <v>960617</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9778528040516236</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.965458659225318</v>
+        <v>0.9666048969178658</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9853641314212405</v>
+        <v>0.9856094167626418</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1208</v>
@@ -1943,19 +1943,19 @@
         <v>1294059</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1278122</v>
+        <v>1278574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1306339</v>
+        <v>1305786</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9673057399037356</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9553929635571897</v>
+        <v>0.9557305907453285</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9764850561841546</v>
+        <v>0.9760718860431383</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2095</v>
@@ -1964,19 +1964,19 @@
         <v>2247116</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2228557</v>
+        <v>2227230</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2262495</v>
+        <v>2261539</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9717510981932005</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9637252182276875</v>
+        <v>0.9631513624345004</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9784014573163794</v>
+        <v>0.9779880217571915</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>178636</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>155308</v>
+        <v>152695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>207611</v>
+        <v>207691</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0910026035734004</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07911865174934257</v>
+        <v>0.07778741394818042</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1057636108110106</v>
+        <v>0.1058041297028047</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -2089,19 +2089,19 @@
         <v>133421</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110898</v>
+        <v>110178</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>160441</v>
+        <v>156356</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07590204406309363</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06308876378377408</v>
+        <v>0.06267960457339268</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09127358774056306</v>
+        <v>0.08894949941141062</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>282</v>
@@ -2110,19 +2110,19 @@
         <v>312057</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>280650</v>
+        <v>279084</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>353938</v>
+        <v>349073</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08386866591860498</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0754277670184955</v>
+        <v>0.07500692401612129</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09512474042983492</v>
+        <v>0.09381705383184247</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1784340</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1755365</v>
+        <v>1755285</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1807668</v>
+        <v>1810281</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9089973964265996</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8942363891889895</v>
+        <v>0.8941958702971956</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9208813482506575</v>
+        <v>0.9222125860518195</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1515</v>
@@ -2160,19 +2160,19 @@
         <v>1624382</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1597362</v>
+        <v>1601447</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1646905</v>
+        <v>1647625</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9240979559369064</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9087264122594372</v>
+        <v>0.9110505005885895</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.936911236216226</v>
+        <v>0.9373203954266074</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3208</v>
@@ -2181,19 +2181,19 @@
         <v>3408722</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3366841</v>
+        <v>3371706</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3440129</v>
+        <v>3441695</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.916131334081395</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9048752595701651</v>
+        <v>0.9061829461681575</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9245722329815045</v>
+        <v>0.9249930759838787</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>115535</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>95386</v>
+        <v>95038</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>137517</v>
+        <v>137587</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2401079956486282</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.198233083120817</v>
+        <v>0.1975095388665091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.285790732001257</v>
+        <v>0.2859365169682107</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -2306,19 +2306,19 @@
         <v>94821</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>76828</v>
+        <v>77223</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113945</v>
+        <v>113234</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2067475469300725</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1675149052994732</v>
+        <v>0.1683779496911622</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.248446600815605</v>
+        <v>0.2468960549310313</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -2327,19 +2327,19 @@
         <v>210356</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>184654</v>
+        <v>182985</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>239156</v>
+        <v>238713</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.223828005259249</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1964797552518413</v>
+        <v>0.1947036928749879</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2544716829910128</v>
+        <v>0.2540002418097011</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>365646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>343664</v>
+        <v>343594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>385795</v>
+        <v>386143</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7598920043513718</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7142092679987432</v>
+        <v>0.7140634830317892</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8017669168791836</v>
+        <v>0.8024904611334911</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>329</v>
@@ -2377,19 +2377,19 @@
         <v>363810</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>344686</v>
+        <v>345397</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>381803</v>
+        <v>381408</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7932524530699275</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.751553399184395</v>
+        <v>0.7531039450689686</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8324850947005268</v>
+        <v>0.8316220503088376</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>669</v>
@@ -2398,19 +2398,19 @@
         <v>729457</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>700657</v>
+        <v>701100</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>755159</v>
+        <v>756828</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7761719947407509</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7455283170089871</v>
+        <v>0.7459997581902991</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8035202447481586</v>
+        <v>0.8052963071250121</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>315757</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>279213</v>
+        <v>279803</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>350931</v>
+        <v>353292</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09235901642279526</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08167001204874919</v>
+        <v>0.08184250443815408</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1026474632629303</v>
+        <v>0.1033379676232681</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>242</v>
@@ -2523,19 +2523,19 @@
         <v>271980</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>241963</v>
+        <v>240654</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>307781</v>
+        <v>306317</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07652287918287615</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06807744145610285</v>
+        <v>0.06770917840368267</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08659570099405754</v>
+        <v>0.08618387326366612</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>523</v>
@@ -2544,19 +2544,19 @@
         <v>587737</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>539038</v>
+        <v>540267</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>636975</v>
+        <v>640845</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08428716359069517</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07730319579675171</v>
+        <v>0.07747951530810027</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09134837803294489</v>
+        <v>0.09190340776671697</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3103043</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3067869</v>
+        <v>3065508</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3139587</v>
+        <v>3138997</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9076409835772048</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8973525367370695</v>
+        <v>0.8966620323767323</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9183299879512505</v>
+        <v>0.9181574955618459</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3052</v>
@@ -2594,19 +2594,19 @@
         <v>3282250</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3246449</v>
+        <v>3247913</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3312267</v>
+        <v>3313576</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9234771208171239</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9134042990059422</v>
+        <v>0.9138161267363338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9319225585438972</v>
+        <v>0.9322908215963172</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5972</v>
@@ -2615,19 +2615,19 @@
         <v>6385294</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6336056</v>
+        <v>6332186</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6433993</v>
+        <v>6432764</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9157128364093048</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9086516219670547</v>
+        <v>0.908096592233283</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9226968042032478</v>
+        <v>0.9225204846918997</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>15435</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8589</v>
+        <v>8904</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23931</v>
+        <v>24678</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02049276240121456</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0114033956475383</v>
+        <v>0.01182135080508821</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03177331494532137</v>
+        <v>0.03276540827474594</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -2979,19 +2979,19 @@
         <v>20064</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11733</v>
+        <v>11934</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31765</v>
+        <v>31099</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02025215604185454</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01184307095961026</v>
+        <v>0.01204593722124339</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03206236658299354</v>
+        <v>0.0313901833591516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -3000,19 +3000,19 @@
         <v>35499</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25176</v>
+        <v>25278</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50567</v>
+        <v>51148</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02035607284762765</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01443679794665978</v>
+        <v>0.01449520027369198</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02899666626812549</v>
+        <v>0.02932961980398709</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>737744</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>729248</v>
+        <v>728501</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>744590</v>
+        <v>744275</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9795072375987854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9682266850546787</v>
+        <v>0.9672345917252541</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9885966043524618</v>
+        <v>0.9881786491949117</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>872</v>
@@ -3050,19 +3050,19 @@
         <v>970648</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>958947</v>
+        <v>959613</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>978979</v>
+        <v>978778</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9797478439581454</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9679376334170063</v>
+        <v>0.9686098166408484</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9881569290403898</v>
+        <v>0.9879540627787565</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1618</v>
@@ -3071,19 +3071,19 @@
         <v>1708392</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1693324</v>
+        <v>1692743</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1718715</v>
+        <v>1718613</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9796439271523724</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9710033337318735</v>
+        <v>0.9706703801960131</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.98556320205334</v>
+        <v>0.9855047997263082</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>128266</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109014</v>
+        <v>106224</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>154175</v>
+        <v>151380</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06185677544691408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0525723572073674</v>
+        <v>0.05122660350855449</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07435111253749231</v>
+        <v>0.07300319641158509</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>102</v>
@@ -3196,19 +3196,19 @@
         <v>110783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>90898</v>
+        <v>92121</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132762</v>
+        <v>135062</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05576933940981603</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04575933716905509</v>
+        <v>0.04637491308936222</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06683392568491991</v>
+        <v>0.06799209054166933</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>219</v>
@@ -3217,19 +3217,19 @@
         <v>239049</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>209730</v>
+        <v>209615</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>274648</v>
+        <v>268394</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05887839961203818</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05165706142982739</v>
+        <v>0.05162875767514107</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06764662489702944</v>
+        <v>0.06610618881742854</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1945338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1919429</v>
+        <v>1922224</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1964590</v>
+        <v>1967380</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.938143224553086</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9256488874625076</v>
+        <v>0.9269968035884149</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9474276427926326</v>
+        <v>0.9487733964914455</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1804</v>
@@ -3267,19 +3267,19 @@
         <v>1875660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1853681</v>
+        <v>1851381</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1895545</v>
+        <v>1894322</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.944230660590184</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9331660743150806</v>
+        <v>0.9320079094583307</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9542406628309451</v>
+        <v>0.9536250869106377</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3637</v>
@@ -3288,19 +3288,19 @@
         <v>3820998</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3785399</v>
+        <v>3791653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3850317</v>
+        <v>3850432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9411216003879618</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9323533751029706</v>
+        <v>0.9338938111825716</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9483429385701726</v>
+        <v>0.9483712423248591</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>133944</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113305</v>
+        <v>113146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156284</v>
+        <v>154627</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2453526509588796</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2075479800708456</v>
+        <v>0.2072571743651861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2862752140368193</v>
+        <v>0.2832392856321865</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>131</v>
@@ -3413,19 +3413,19 @@
         <v>140939</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120951</v>
+        <v>121773</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>162407</v>
+        <v>164397</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2566540436165416</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.220254763114778</v>
+        <v>0.2217520262530314</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2957485030358522</v>
+        <v>0.2993720569695069</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>253</v>
@@ -3434,19 +3434,19 @@
         <v>274883</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>247409</v>
+        <v>247090</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>305766</v>
+        <v>304063</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2510199509825247</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2259309708057246</v>
+        <v>0.2256395810075244</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2792219246516173</v>
+        <v>0.277666714225426</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>411979</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>389639</v>
+        <v>391296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>432618</v>
+        <v>432777</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7546473490411204</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7137247859631812</v>
+        <v>0.7167607143678135</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7924520199291545</v>
+        <v>0.7927428256348139</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>395</v>
@@ -3484,19 +3484,19 @@
         <v>408201</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>386733</v>
+        <v>384743</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>428189</v>
+        <v>427367</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7433459563834585</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7042514969641477</v>
+        <v>0.700627943030493</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.779745236885222</v>
+        <v>0.7782479737469685</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>773</v>
@@ -3505,19 +3505,19 @@
         <v>820180</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>789297</v>
+        <v>791000</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>847654</v>
+        <v>847973</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7489800490174754</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7207780753483826</v>
+        <v>0.722333285774574</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7740690291942754</v>
+        <v>0.7743604189924757</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>277645</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>244965</v>
+        <v>246570</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>311116</v>
+        <v>312528</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08232108435501527</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07263148986064306</v>
+        <v>0.07310748931615171</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0922451116951738</v>
+        <v>0.09266383682202682</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>250</v>
@@ -3630,19 +3630,19 @@
         <v>271786</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>242213</v>
+        <v>238680</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>305355</v>
+        <v>306380</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07707401870395686</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06868751589918282</v>
+        <v>0.06768584102855484</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08659378150908946</v>
+        <v>0.0868842944560861</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>504</v>
@@ -3651,19 +3651,19 @@
         <v>549431</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>503979</v>
+        <v>496916</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>598220</v>
+        <v>594344</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07963914450733373</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07305106667711721</v>
+        <v>0.07202729771454917</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08671106001412421</v>
+        <v>0.08614935658115522</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3095060</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3061589</v>
+        <v>3060177</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3127740</v>
+        <v>3126135</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9176789156449847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9077548883048262</v>
+        <v>0.9073361631779719</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9273685101393568</v>
+        <v>0.9268925106838483</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3071</v>
@@ -3701,19 +3701,19 @@
         <v>3254510</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3220941</v>
+        <v>3219916</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3284083</v>
+        <v>3287616</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9229259812960431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9134062184909105</v>
+        <v>0.9131157055439137</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9313124841008172</v>
+        <v>0.9323141589714449</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6028</v>
@@ -3722,19 +3722,19 @@
         <v>6349570</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6300781</v>
+        <v>6304657</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6395022</v>
+        <v>6402085</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9203608554926662</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9132889399858758</v>
+        <v>0.9138506434188448</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9269489333228828</v>
+        <v>0.9279727022854508</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>12963</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7749</v>
+        <v>7776</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20814</v>
+        <v>21405</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0224063620504231</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01339434261874543</v>
+        <v>0.01344178768009612</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03597710658603116</v>
+        <v>0.03699923900389254</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -4086,19 +4086,19 @@
         <v>21223</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15220</v>
+        <v>14681</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29785</v>
+        <v>29073</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02584050592283811</v>
+        <v>0.02584050592283812</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01853100728339056</v>
+        <v>0.01787464590578814</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03626530322078494</v>
+        <v>0.03539824327135303</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -4107,19 +4107,19 @@
         <v>34186</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25594</v>
+        <v>25380</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45747</v>
+        <v>45281</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02442123887660263</v>
+        <v>0.02442123887660262</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01828357931796858</v>
+        <v>0.01813031972929482</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03267994210710725</v>
+        <v>0.03234721227349331</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>565566</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>557715</v>
+        <v>557124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>570780</v>
+        <v>570753</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9775936379495771</v>
+        <v>0.9775936379495769</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9640228934139685</v>
+        <v>0.9630007609961073</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9866056573812544</v>
+        <v>0.9865582123199038</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1391</v>
@@ -4157,19 +4157,19 @@
         <v>800092</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>791530</v>
+        <v>792242</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>806095</v>
+        <v>806634</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.974159494077162</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9637346967792151</v>
+        <v>0.9646017567286471</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9814689927166097</v>
+        <v>0.9821253540942118</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2066</v>
@@ -4178,19 +4178,19 @@
         <v>1365659</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1354098</v>
+        <v>1354564</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1374251</v>
+        <v>1374465</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9755787611233973</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9673200578928927</v>
+        <v>0.9676527877265069</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9817164206820314</v>
+        <v>0.9818696802707053</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>243243</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>209896</v>
+        <v>210125</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>281210</v>
+        <v>278275</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1090500213609107</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09409982609541198</v>
+        <v>0.09420266575289429</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1260711524521669</v>
+        <v>0.1247551116154574</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>304</v>
@@ -4303,19 +4303,19 @@
         <v>216695</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>192757</v>
+        <v>194617</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>242405</v>
+        <v>245722</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0998446269437865</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08881485887146338</v>
+        <v>0.08967165751397983</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1116906803083438</v>
+        <v>0.1132191448547672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>511</v>
@@ -4324,19 +4324,19 @@
         <v>459939</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>418406</v>
+        <v>419919</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>501580</v>
+        <v>506411</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1045103267692614</v>
+        <v>0.1045103267692615</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09507292529440331</v>
+        <v>0.09541674667921882</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1139723875325967</v>
+        <v>0.1150700487215503</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1987323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1949356</v>
+        <v>1952291</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2020670</v>
+        <v>2020441</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8909499786390894</v>
+        <v>0.8909499786390893</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8739288475478332</v>
+        <v>0.8752448883845424</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9059001739045879</v>
+        <v>0.9057973342471055</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2616</v>
@@ -4374,19 +4374,19 @@
         <v>1953631</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1927921</v>
+        <v>1924604</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1977569</v>
+        <v>1975709</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9001553730562136</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8883093196916562</v>
+        <v>0.8867808551452327</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9111851411285368</v>
+        <v>0.9103283424860201</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4401</v>
@@ -4395,19 +4395,19 @@
         <v>3940953</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3899312</v>
+        <v>3894481</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3982486</v>
+        <v>3980973</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8954896732307385</v>
+        <v>0.8954896732307387</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8860276124674035</v>
+        <v>0.8849299512784498</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9049270747055969</v>
+        <v>0.9045832533207814</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>218023</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>193836</v>
+        <v>190957</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246067</v>
+        <v>247895</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3063897138577222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2723991687040047</v>
+        <v>0.2683532605353116</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3458005425909979</v>
+        <v>0.3483685804732352</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>354</v>
@@ -4520,19 +4520,19 @@
         <v>253300</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>228521</v>
+        <v>228414</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>276923</v>
+        <v>275318</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3446832298924728</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3109646826561104</v>
+        <v>0.3108196513590833</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.376828816294892</v>
+        <v>0.3746451178874161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>574</v>
@@ -4541,19 +4541,19 @@
         <v>471323</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>438327</v>
+        <v>440258</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>507412</v>
+        <v>509667</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3258447634612874</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3030331889794167</v>
+        <v>0.3043686761835734</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3507948891397094</v>
+        <v>0.3523534309403152</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>493564</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>465520</v>
+        <v>463692</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>517751</v>
+        <v>520630</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6936102861422778</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6541994574090021</v>
+        <v>0.6516314195267647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7276008312959952</v>
+        <v>0.7316467394646886</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>650</v>
@@ -4591,19 +4591,19 @@
         <v>481577</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>457954</v>
+        <v>459559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>506356</v>
+        <v>506463</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6553167701075271</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6231711837051079</v>
+        <v>0.6253548821125839</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6890353173438897</v>
+        <v>0.6891803486409166</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1111</v>
@@ -4612,19 +4612,19 @@
         <v>975141</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>939052</v>
+        <v>936797</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1008137</v>
+        <v>1006206</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6741552365387127</v>
+        <v>0.6741552365387126</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6492051108602906</v>
+        <v>0.6476465690596848</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6969668110205834</v>
+        <v>0.6956313238164267</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>474229</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>427988</v>
+        <v>430960</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>518292</v>
+        <v>525406</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1346980185305238</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1215638820867144</v>
+        <v>0.1224079798463463</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1472133478256444</v>
+        <v>0.1492342526047639</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>693</v>
@@ -4737,19 +4737,19 @@
         <v>491219</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>456771</v>
+        <v>455052</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>530316</v>
+        <v>530969</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1318169959307757</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1225730825099073</v>
+        <v>0.12211186422153</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1423086337235452</v>
+        <v>0.1424838040893928</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1136</v>
@@ -4758,19 +4758,19 @@
         <v>965447</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>909835</v>
+        <v>912696</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1031948</v>
+        <v>1029754</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.133216593691504</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1255429617884606</v>
+        <v>0.1259377824120245</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.142392611601394</v>
+        <v>0.1420898777840274</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3046454</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3002391</v>
+        <v>2995277</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3092695</v>
+        <v>3089723</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8653019814694761</v>
+        <v>0.8653019814694762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8527866521743556</v>
+        <v>0.8507657473952361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8784361179132856</v>
+        <v>0.8775920201536536</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4657</v>
@@ -4808,19 +4808,19 @@
         <v>3235300</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3196203</v>
+        <v>3195550</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3269748</v>
+        <v>3271467</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8681830040692244</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8576913662764551</v>
+        <v>0.857516195910607</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8774269174900927</v>
+        <v>0.8778881357784697</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7578</v>
@@ -4829,19 +4829,19 @@
         <v>6281754</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6215253</v>
+        <v>6217447</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6337366</v>
+        <v>6334505</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8667834063084959</v>
+        <v>0.8667834063084962</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8576073883986061</v>
+        <v>0.8579101222159725</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8744570382115395</v>
+        <v>0.8740622175879759</v>
       </c>
     </row>
     <row r="15">
